--- a/Dokumentation/AllgemeinePlanung.xlsx
+++ b/Dokumentation/AllgemeinePlanung.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D3B054-138C-4ED4-9964-3ABC2A088E03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CAC76A0-FD97-F748-98F5-714FDD0389D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>Tag</t>
   </si>
@@ -50,6 +57,123 @@
   </si>
   <si>
     <t>Allgemeine Ziele Woche 4</t>
+  </si>
+  <si>
+    <t>Erstellen des Zeitplans</t>
+  </si>
+  <si>
+    <t>Aufteilung Spiele</t>
+  </si>
+  <si>
+    <t>Aufteilung der Verantwortungen</t>
+  </si>
+  <si>
+    <t>Erstellen UseCase-Diagramme</t>
+  </si>
+  <si>
+    <t>Erstellen Klassendiagramme</t>
+  </si>
+  <si>
+    <t>Aufsetzen der Dokumentation</t>
+  </si>
+  <si>
+    <t>Analyse der IPA-Dokumente</t>
+  </si>
+  <si>
+    <t>Einarbeitung Maven</t>
+  </si>
+  <si>
+    <t>Einarbeitung JDBC</t>
+  </si>
+  <si>
+    <t>Aufsetzen Projekt</t>
+  </si>
+  <si>
+    <t>Erstellung von Github-Gruppe</t>
+  </si>
+  <si>
+    <t>Implementierung der Klassendiagramme</t>
+  </si>
+  <si>
+    <t>Implementierung der Spiele (Prototyp)</t>
+  </si>
+  <si>
+    <t>Testen der Spiele</t>
+  </si>
+  <si>
+    <t>Zusammenführen der Spiele</t>
+  </si>
+  <si>
+    <t>Implementieren des Logins</t>
+  </si>
+  <si>
+    <t>Implementieren Auswahloberfläche.</t>
+  </si>
+  <si>
+    <t>Fertige Implementierung der Spiele</t>
+  </si>
+  <si>
+    <t>Schreiben der Tesfälle</t>
+  </si>
+  <si>
+    <t>Schreiben von Szenarien</t>
+  </si>
+  <si>
+    <t>Testen der Applikation</t>
+  </si>
+  <si>
+    <t>Problemlösung innerhalb der Applikation</t>
+  </si>
+  <si>
+    <t>Aufräumen des Codes</t>
+  </si>
+  <si>
+    <t>Durchlauf der Testfälle</t>
+  </si>
+  <si>
+    <t>Ergänzung der Dokumentation</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Auswahloberfläche</t>
+  </si>
+  <si>
+    <t>Implementierung von Statistiken</t>
+  </si>
+  <si>
+    <t>4.04.2019</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
+    <t>Ist</t>
+  </si>
+  <si>
+    <t>Zustand</t>
+  </si>
+  <si>
+    <t>Zeitaufwand</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>Individueller Zeitplan</t>
+  </si>
+  <si>
+    <t>1 Tag</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>4h</t>
   </si>
 </sst>
 </file>
@@ -73,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +220,30 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -167,9 +315,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -449,18 +602,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="99.85546875" customWidth="1"/>
-    <col min="6" max="6" width="100.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.10546875" customWidth="1"/>
+    <col min="3" max="3" width="99.81640625" customWidth="1"/>
+    <col min="6" max="6" width="100.890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
@@ -484,7 +637,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -494,7 +647,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
@@ -504,7 +657,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
@@ -514,7 +667,7 @@
       </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -524,7 +677,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
@@ -548,7 +701,7 @@
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>3</v>
       </c>
@@ -558,7 +711,7 @@
       </c>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
@@ -568,7 +721,7 @@
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>5</v>
       </c>
@@ -578,7 +731,7 @@
       </c>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -587,6 +740,478 @@
         <v>6</v>
       </c>
       <c r="F18" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C65DCC-9E89-8546-BF45-6D30C64693D2}">
+  <dimension ref="A1:AM56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{69172422-9237-5F09-B8F8-B2699FAE6BE4}">
+      <selection activeCell="AG56" sqref="AG56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="34.70703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1">
+        <v>5.04</v>
+      </c>
+      <c r="F1">
+        <v>6.04</v>
+      </c>
+      <c r="G1">
+        <v>7.04</v>
+      </c>
+      <c r="H1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="I1">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="J1">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="K1">
+        <v>11.4</v>
+      </c>
+      <c r="L1">
+        <v>12.04</v>
+      </c>
+      <c r="M1">
+        <v>13.04</v>
+      </c>
+      <c r="N1">
+        <v>14.04</v>
+      </c>
+      <c r="O1">
+        <v>15.04</v>
+      </c>
+      <c r="P1">
+        <v>16.04</v>
+      </c>
+      <c r="Q1">
+        <v>17.04</v>
+      </c>
+      <c r="R1">
+        <v>18.04</v>
+      </c>
+      <c r="S1">
+        <v>19.04</v>
+      </c>
+      <c r="T1">
+        <v>20.04</v>
+      </c>
+      <c r="U1">
+        <v>21.04</v>
+      </c>
+      <c r="V1">
+        <v>22.04</v>
+      </c>
+      <c r="W1">
+        <v>23.04</v>
+      </c>
+      <c r="X1">
+        <v>24.04</v>
+      </c>
+      <c r="Y1">
+        <v>25.04</v>
+      </c>
+      <c r="Z1">
+        <v>26.04</v>
+      </c>
+      <c r="AA1">
+        <v>27.04</v>
+      </c>
+      <c r="AB1">
+        <v>28.04</v>
+      </c>
+      <c r="AC1">
+        <v>29.04</v>
+      </c>
+      <c r="AD1">
+        <v>30.04</v>
+      </c>
+      <c r="AE1">
+        <v>1.05</v>
+      </c>
+      <c r="AF1">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AG1">
+        <v>3.05</v>
+      </c>
+      <c r="AH1">
+        <v>4.05</v>
+      </c>
+      <c r="AI1">
+        <v>5.05</v>
+      </c>
+      <c r="AJ1">
+        <v>6.05</v>
+      </c>
+      <c r="AK1">
+        <v>7.05</v>
+      </c>
+      <c r="AL1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AM1">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="7"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC38" s="7"/>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC40" s="7"/>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD42" s="7"/>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD44" s="7"/>
+    </row>
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE46" s="7"/>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF48" s="7"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF50" s="7"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF52" s="7"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG54" s="7"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
